--- a/Kode/Server2/Logs/LTE-node1/2020-05-18.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-18.xlsx
@@ -403,7 +403,7 @@
         <v>0.975</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0982</v>
+        <v>2098.2</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2654</v>
+        <v>1265.4</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>0.48</v>
       </c>
       <c r="F4" t="n">
-        <v>1.10016</v>
+        <v>1100.16</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>1.125</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3535</v>
+        <v>2353.5</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>0.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0386</v>
+        <v>1038.6</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>1.08</v>
       </c>
       <c r="F7" t="n">
-        <v>2.30256</v>
+        <v>2302.56</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>1.095</v>
       </c>
       <c r="F8" t="n">
-        <v>2.40024</v>
+        <v>2400.24</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>1.44</v>
       </c>
       <c r="F9" t="n">
-        <v>2.8512</v>
+        <v>2851.2</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>1.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5344</v>
+        <v>2534.4</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>1.605</v>
       </c>
       <c r="F11" t="n">
-        <v>3.12012</v>
+        <v>3120.12</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>1.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2.964</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>1.365</v>
       </c>
       <c r="F13" t="n">
-        <v>2.72454</v>
+        <v>2724.54</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>1.08</v>
       </c>
       <c r="F14" t="n">
-        <v>2.45376</v>
+        <v>2453.76</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>1.17</v>
       </c>
       <c r="F15" t="n">
-        <v>2.60208</v>
+        <v>2602.08</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>1.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2.712</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>1.08</v>
       </c>
       <c r="F17" t="n">
-        <v>2.4192</v>
+        <v>2419.2</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>1.005</v>
       </c>
       <c r="F18" t="n">
-        <v>2.27532</v>
+        <v>2275.32</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>1.005</v>
       </c>
       <c r="F19" t="n">
-        <v>2.32758</v>
+        <v>2327.58</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>1.005</v>
       </c>
       <c r="F20" t="n">
-        <v>2.27532</v>
+        <v>2275.32</v>
       </c>
     </row>
   </sheetData>
